--- a/output/df_results_net.xlsx
+++ b/output/df_results_net.xlsx
@@ -14,42 +14,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>HOURS</t>
   </si>
   <si>
-    <t>costBuy</t>
-  </si>
-  <si>
-    <t>costSell</t>
-  </si>
-  <si>
     <t>P_demand</t>
   </si>
   <si>
-    <t>P_buy</t>
-  </si>
-  <si>
     <t>P_solar</t>
   </si>
   <si>
+    <t>P_net_demand</t>
+  </si>
+  <si>
     <t>P_sell</t>
   </si>
   <si>
-    <t>P_Pv_1</t>
-  </si>
-  <si>
-    <t>P_Pv_1_demand</t>
-  </si>
-  <si>
-    <t>P_Pv_1_net</t>
+    <t>P_bat_demand</t>
+  </si>
+  <si>
+    <t>P_bat_ch</t>
+  </si>
+  <si>
+    <t>P_bat_dis</t>
+  </si>
+  <si>
+    <t>P_bat_net</t>
+  </si>
+  <si>
+    <t>P_pv</t>
+  </si>
+  <si>
+    <t>P_pv_bat</t>
+  </si>
+  <si>
+    <t>P_pv_demand</t>
+  </si>
+  <si>
+    <t>P_pv_net</t>
   </si>
   <si>
     <t>E_sell</t>
   </si>
   <si>
     <t>E_buy</t>
+  </si>
+  <si>
+    <t>SOC</t>
+  </si>
+  <si>
+    <t>K_ch</t>
+  </si>
+  <si>
+    <t>K_dis</t>
   </si>
   <si>
     <t>1</t>
@@ -479,13 +497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,738 +540,1098 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>0.47</v>
+        <v>485</v>
       </c>
       <c r="C2">
-        <v>0.31</v>
+        <v>893</v>
       </c>
       <c r="D2">
-        <v>485</v>
+        <v>395.7</v>
       </c>
       <c r="E2">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>893</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>446.5</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>446.5</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>89.30000000000001</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>89.30000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>395.7</v>
+      </c>
+      <c r="P2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2">
+        <v>1.110223024625157E-16</v>
+      </c>
+      <c r="R2">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>0.46</v>
+        <v>444</v>
       </c>
       <c r="C3">
-        <v>0.3</v>
+        <v>632</v>
       </c>
       <c r="D3">
-        <v>444</v>
+        <v>380.8</v>
       </c>
       <c r="E3">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>632</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>63.2</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>380.8</v>
+      </c>
+      <c r="P3">
+        <v>0.5</v>
+      </c>
+      <c r="Q3">
+        <v>1.110223024625157E-16</v>
+      </c>
+      <c r="R3">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B4">
+        <v>384</v>
+      </c>
+      <c r="C4">
+        <v>212</v>
+      </c>
+      <c r="D4">
+        <v>315.3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>47.5</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>47.5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>21.2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>21.2</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>315.3</v>
+      </c>
+      <c r="P4">
         <v>0.5</v>
       </c>
-      <c r="C4">
-        <v>0.36</v>
-      </c>
-      <c r="D4">
-        <v>384</v>
-      </c>
-      <c r="E4">
-        <v>278</v>
-      </c>
-      <c r="F4">
-        <v>212</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>106</v>
-      </c>
-      <c r="I4">
-        <v>106</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>0.44</v>
+        <v>325</v>
       </c>
       <c r="C5">
-        <v>0.32</v>
+        <v>580</v>
       </c>
       <c r="D5">
-        <v>325</v>
+        <v>267</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>58</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>267</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <v>0.47</v>
+        <v>394</v>
       </c>
       <c r="C6">
-        <v>0.32</v>
+        <v>607</v>
       </c>
       <c r="D6">
-        <v>394</v>
+        <v>333.3</v>
       </c>
       <c r="E6">
-        <v>90.5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>303.5</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>303.5</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>60.7</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>90.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>60.7</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>333.3</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B7">
-        <v>0.41</v>
+        <v>436</v>
       </c>
       <c r="C7">
-        <v>0.37</v>
+        <v>177</v>
       </c>
       <c r="D7">
-        <v>436</v>
+        <v>435.6631578947368</v>
       </c>
       <c r="E7">
-        <v>347.5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>17.36315789473682</v>
       </c>
       <c r="H7">
-        <v>88.5</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>88.5</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>17.7</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.36315789473682</v>
       </c>
       <c r="L7">
-        <v>347.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.3368421052631767</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>435.6631578947368</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>0.45</v>
+        <v>423</v>
       </c>
       <c r="C8">
-        <v>0.3</v>
+        <v>735</v>
       </c>
       <c r="D8">
-        <v>423</v>
+        <v>349.5</v>
       </c>
       <c r="E8">
-        <v>55.5</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>735</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>367.5</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>367.5</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>55.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>73.5</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>349.5</v>
+      </c>
+      <c r="P8">
+        <v>0.1649499999999998</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>0.4</v>
+        <v>459</v>
       </c>
       <c r="C9">
-        <v>0.36</v>
+        <v>879</v>
       </c>
       <c r="D9">
         <v>459</v>
       </c>
       <c r="E9">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>879</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>87.90000000000002</v>
       </c>
       <c r="H9">
-        <v>439.5</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>439.5</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>87.90000000000002</v>
       </c>
       <c r="L9">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>-1.4210854715202E-14</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>459</v>
+      </c>
+      <c r="P9">
+        <v>0.1649499999999998</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <v>0.46</v>
+        <v>406</v>
       </c>
       <c r="C10">
-        <v>0.34</v>
+        <v>731</v>
       </c>
       <c r="D10">
-        <v>406</v>
+        <v>237.8999999999999</v>
       </c>
       <c r="E10">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>731</v>
+        <v>95.00000000000003</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>365.5</v>
+        <v>95.00000000000003</v>
       </c>
       <c r="I10">
-        <v>365.5</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>73.10000000000001</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>73.10000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>237.8999999999999</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B11">
-        <v>0.4</v>
+        <v>300</v>
       </c>
       <c r="C11">
-        <v>0.33</v>
+        <v>281</v>
       </c>
       <c r="D11">
         <v>300</v>
       </c>
       <c r="E11">
-        <v>159.5</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>28.10000000000001</v>
       </c>
       <c r="H11">
-        <v>140.5</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>140.5</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>28.1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>28.10000000000001</v>
       </c>
       <c r="L11">
-        <v>159.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>-7.105427357601002E-15</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>300</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>0.4</v>
+        <v>435</v>
       </c>
       <c r="C12">
-        <v>0.4</v>
+        <v>232</v>
       </c>
       <c r="D12">
         <v>435</v>
       </c>
       <c r="E12">
+        <v>-3.552713678800501E-15</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>23.20000000000001</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>23.2</v>
+      </c>
+      <c r="K12">
+        <v>23.20000000000001</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>-3.552713678800501E-15</v>
+      </c>
+      <c r="N12">
+        <v>-3.552713678800501E-15</v>
+      </c>
+      <c r="O12">
         <v>435</v>
       </c>
-      <c r="F12">
-        <v>232</v>
-      </c>
-      <c r="G12">
-        <v>116</v>
-      </c>
-      <c r="H12">
-        <v>116</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>116</v>
-      </c>
-      <c r="K12">
-        <v>116</v>
-      </c>
-      <c r="L12">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="P12">
+        <v>0.2669500000000001</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B13">
-        <v>0.46</v>
+        <v>470</v>
       </c>
       <c r="C13">
-        <v>0.36</v>
+        <v>390</v>
       </c>
       <c r="D13">
-        <v>470</v>
+        <v>384.70175</v>
       </c>
       <c r="E13">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>390</v>
+        <v>46.29825000000002</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>195</v>
+        <v>46.29825000000002</v>
       </c>
       <c r="I13">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>39</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>384.70175</v>
+      </c>
+      <c r="P13">
+        <v>0.4873500000000002</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>0.43</v>
+        <v>343</v>
       </c>
       <c r="C14">
-        <v>0.32</v>
+        <v>883</v>
       </c>
       <c r="D14">
-        <v>343</v>
+        <v>254.7</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>98.5</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>441.5</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>98.5</v>
+        <v>88.30000000000001</v>
       </c>
       <c r="K14">
-        <v>98.5</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>88.30000000000001</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>254.7</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.110223024625157E-16</v>
+      </c>
+      <c r="R14">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B15">
-        <v>0.4</v>
+        <v>485</v>
       </c>
       <c r="C15">
-        <v>0.39</v>
+        <v>955</v>
       </c>
       <c r="D15">
         <v>485</v>
       </c>
       <c r="E15">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>955</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>95.50000000000001</v>
       </c>
       <c r="H15">
-        <v>477.5</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>477.5</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>95.5</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>95.50000000000001</v>
       </c>
       <c r="L15">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>-1.4210854715202E-14</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>485</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B16">
-        <v>0.43</v>
+        <v>370</v>
       </c>
       <c r="C16">
-        <v>0.4</v>
+        <v>841</v>
       </c>
       <c r="D16">
-        <v>370</v>
+        <v>285.9</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>841</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>50.5</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>420.5</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>50.5</v>
+        <v>84.10000000000001</v>
       </c>
       <c r="K16">
-        <v>50.5</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>84.10000000000001</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>285.9</v>
+      </c>
+      <c r="P16">
+        <v>0.9072500000000001</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B17">
-        <v>0.45</v>
+        <v>381</v>
       </c>
       <c r="C17">
-        <v>0.3</v>
+        <v>385</v>
       </c>
       <c r="D17">
-        <v>381</v>
+        <v>342.5</v>
       </c>
       <c r="E17">
-        <v>188.5</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>192.5</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>192.5</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>188.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>38.5</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>342.5</v>
+      </c>
+      <c r="P17">
+        <v>0.9072500000000001</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B18">
-        <v>0.41</v>
+        <v>397</v>
       </c>
       <c r="C18">
-        <v>0.38</v>
+        <v>672</v>
       </c>
       <c r="D18">
-        <v>397</v>
+        <v>339.5631578947368</v>
       </c>
       <c r="E18">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>9.763157894736864</v>
       </c>
       <c r="H18">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>67.2</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>9.763157894736864</v>
       </c>
       <c r="L18">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>57.43684210526314</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>339.5631578947368</v>
+      </c>
+      <c r="P18">
+        <v>0.9072500000000001</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B19">
-        <v>0.49</v>
+        <v>363</v>
       </c>
       <c r="C19">
-        <v>0.33</v>
+        <v>547</v>
       </c>
       <c r="D19">
-        <v>363</v>
+        <v>213.3</v>
       </c>
       <c r="E19">
-        <v>89.5</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>547</v>
+        <v>95.00000000000003</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>273.5</v>
+        <v>95.00000000000003</v>
       </c>
       <c r="I19">
-        <v>273.5</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>54.7</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>89.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>54.7</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>213.3</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B20">
-        <v>0.41</v>
+        <v>436</v>
       </c>
       <c r="C20">
-        <v>0.38</v>
+        <v>552</v>
       </c>
       <c r="D20">
-        <v>436</v>
+        <v>388.4631578947368</v>
       </c>
       <c r="E20">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>7.663157894736805</v>
       </c>
       <c r="H20">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>55.2</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>7.663157894736805</v>
       </c>
       <c r="L20">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>47.5368421052632</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>388.4631578947368</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B21">
-        <v>0.4</v>
+        <v>484</v>
       </c>
       <c r="C21">
-        <v>0.39</v>
+        <v>976</v>
       </c>
       <c r="D21">
         <v>484</v>
@@ -1262,177 +1640,267 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>976</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>97.60000000000004</v>
       </c>
       <c r="H21">
-        <v>488</v>
+        <v>0</v>
       </c>
       <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>97.60000000000001</v>
+      </c>
+      <c r="K21">
+        <v>97.60000000000004</v>
+      </c>
+      <c r="L21">
+        <v>-2.842170943040401E-14</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>484</v>
       </c>
-      <c r="J21">
-        <v>4</v>
-      </c>
-      <c r="K21">
-        <v>4</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="P21">
+        <v>0.07279999999999964</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B22">
-        <v>0.41</v>
+        <v>302</v>
       </c>
       <c r="C22">
-        <v>0.36</v>
+        <v>734</v>
       </c>
       <c r="D22">
-        <v>302</v>
+        <v>228.6</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>734</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>65</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="K22">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>228.6</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B23">
-        <v>0.46</v>
+        <v>350</v>
       </c>
       <c r="C23">
-        <v>0.33</v>
+        <v>388</v>
       </c>
       <c r="D23">
-        <v>350</v>
+        <v>311.2</v>
       </c>
       <c r="E23">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>38.8</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>311.2</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B24">
-        <v>0.48</v>
+        <v>457</v>
       </c>
       <c r="C24">
-        <v>0.39</v>
+        <v>731</v>
       </c>
       <c r="D24">
-        <v>457</v>
+        <v>288.9</v>
       </c>
       <c r="E24">
-        <v>91.5</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>731</v>
+        <v>95</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>365.5</v>
+        <v>95</v>
       </c>
       <c r="I24">
-        <v>365.5</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>73.10000000000001</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>91.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>73.10000000000001</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>288.9</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B25">
-        <v>0.5</v>
+        <v>439</v>
       </c>
       <c r="C25">
-        <v>0.35</v>
+        <v>754</v>
       </c>
       <c r="D25">
-        <v>439</v>
+        <v>263.6</v>
       </c>
       <c r="E25">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>754</v>
+        <v>100</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>377</v>
+        <v>100</v>
       </c>
       <c r="I25">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>62</v>
+        <v>75.40000000000001</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>263.6</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
